--- a/exel/Uh.xlsx
+++ b/exel/Uh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panfleto\OneDrive\Documentos\A\NYGMA\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF10DD-A66A-46EB-96AE-903DFFBBA4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF50E55-45A5-4881-BB4B-A1B3E31F2478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE9F7790-9794-41A3-9CE8-37B073E93159}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>position</t>
   </si>
@@ -75,18 +75,6 @@
     <t>Soy un trocito de luz en la noche, De día me escondo en la hierba, Parezco una esmeralda que el viento se lleva.</t>
   </si>
   <si>
-    <t>El Murciélago</t>
-  </si>
-  <si>
-    <t>El cangrejo</t>
-  </si>
-  <si>
-    <t>Una Toalla</t>
-  </si>
-  <si>
-    <t>La Luciérnaga</t>
-  </si>
-  <si>
     <t>De celda a celda voy, pero prisionera no soy.</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>Algunas veces soy mensajera, también símbolo de la paz, en los parques o jardines me puedes encontrar.</t>
   </si>
   <si>
-    <t>El Búho</t>
-  </si>
-  <si>
     <t>La Abeja</t>
   </si>
   <si>
@@ -121,6 +106,27 @@
   </si>
   <si>
     <t>El Mejillon</t>
+  </si>
+  <si>
+    <t>Los ricos lo quieren, los sabios lo conocen y los pobres lo nesesitan</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>El Cangrejo</t>
+  </si>
+  <si>
+    <t>El Fuego</t>
+  </si>
+  <si>
+    <t>El Murcielago</t>
+  </si>
+  <si>
+    <t>La Luciernaga</t>
+  </si>
+  <si>
+    <t>El Buho</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,10 +614,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,10 +625,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,10 +658,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,10 +669,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,82 +680,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>

--- a/exel/Uh.xlsx
+++ b/exel/Uh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panfleto\OneDrive\Documentos\A\NYGMA\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF50E55-45A5-4881-BB4B-A1B3E31F2478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FAFA8-58E2-44E5-BAF7-C4A3F472B526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE9F7790-9794-41A3-9CE8-37B073E93159}"/>
+    <workbookView xWindow="16485" yWindow="1395" windowWidth="23805" windowHeight="15600" xr2:uid="{AE9F7790-9794-41A3-9CE8-37B073E93159}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>position</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Alimentame y vivire, dame agua y morire.</t>
   </si>
   <si>
-    <t>cuanto más lavo,más sucia voy.</t>
-  </si>
-  <si>
     <t>al ir parece que vengo, y al venir, es que me voy.</t>
   </si>
   <si>
@@ -108,12 +106,6 @@
     <t>El Mejillon</t>
   </si>
   <si>
-    <t>Los ricos lo quieren, los sabios lo conocen y los pobres lo nesesitan</t>
-  </si>
-  <si>
-    <t>Amor</t>
-  </si>
-  <si>
     <t>El Cangrejo</t>
   </si>
   <si>
@@ -127,6 +119,231 @@
   </si>
   <si>
     <t>El Buho</t>
+  </si>
+  <si>
+    <t>EL Espejo</t>
+  </si>
+  <si>
+    <t>Los Segundos</t>
+  </si>
+  <si>
+    <t>Una Estampilla</t>
+  </si>
+  <si>
+    <t>Cuanto más lavo, mas sucia voy.</t>
+  </si>
+  <si>
+    <t>El Azucarero</t>
+  </si>
+  <si>
+    <t>El Cerebro</t>
+  </si>
+  <si>
+    <t>Haciendo ruido vengo, haciendo ruido me voy, y cuando vuelvo en la mañanna, de igual forma me ire.</t>
+  </si>
+  <si>
+    <t>Entre mas me usas, mas servire.</t>
+  </si>
+  <si>
+    <t>Tengo azucar pero no soy dulce.</t>
+  </si>
+  <si>
+    <t>Viajo alrededor del mundo pero siempre estoy en el mismo sitio.</t>
+  </si>
+  <si>
+    <t>Corro mas que los minutos pero nunca llegan primero.</t>
+  </si>
+  <si>
+    <t>Soy bonito por delante algo feo por detrás me transformo a cada instante ya que imito a los demas.</t>
+  </si>
+  <si>
+    <t>Entre mas tengo, menos contengo.</t>
+  </si>
+  <si>
+    <t>Aveces soy tristesa, aveces alivio, te llevare alli pero nunca te traere de regreso.</t>
+  </si>
+  <si>
+    <t>La Muerte</t>
+  </si>
+  <si>
+    <t>Las Olas</t>
+  </si>
+  <si>
+    <t>Un Agujero</t>
+  </si>
+  <si>
+    <t>Los ricos lo quieren, los sabios lo conocen y los pobres lo nesesitan.</t>
+  </si>
+  <si>
+    <t>Tengo la cara redonda, tengo la cara empolvada y si me pongo del reves seguro no me vez.</t>
+  </si>
+  <si>
+    <t>LA Luna</t>
+  </si>
+  <si>
+    <t>EL Amor</t>
+  </si>
+  <si>
+    <t>La Mesa</t>
+  </si>
+  <si>
+    <t>Aunque tengo cuatro patas, nunca pude correr, tengo la comida encima y no la puedo comer.</t>
+  </si>
+  <si>
+    <t>Tengo alas de mil colores y se pierden entre flores.</t>
+  </si>
+  <si>
+    <t>Las Mariposas</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>TxT</t>
+  </si>
+  <si>
+    <t>si tuviera que elegir un pokemon te elegiría a ti poketeamo.</t>
+  </si>
+  <si>
+    <t>Verde fue mi nacimiento, amarillo mi vivir y ahora me visto de negro sabiendo que voy a morir.</t>
+  </si>
+  <si>
+    <t>Las Aceitunas</t>
+  </si>
+  <si>
+    <t>Suelo ir de la mano en mano, tengo hojas y no soy flor, y aun teniendo muchas letras no soy nadie de deudor.</t>
+  </si>
+  <si>
+    <t>Un Libro</t>
+  </si>
+  <si>
+    <t>No tengo manos pero si toco tu puerta sera mejor que abras</t>
+  </si>
+  <si>
+    <t>La Oportunidad</t>
+  </si>
+  <si>
+    <t>El hielo se derrite cuando lo calientas, pero si me calientas me solidifico.</t>
+  </si>
+  <si>
+    <t>El Huebo</t>
+  </si>
+  <si>
+    <t>Almacen de historias rotas dicen muchos que soy y en colegios y oficinas por los rincones estoy.</t>
+  </si>
+  <si>
+    <t>La Papelera</t>
+  </si>
+  <si>
+    <t>Siempre estoy a la intemperie a la orilla del calor tengo el estomago negro y tomo baños de sol.</t>
+  </si>
+  <si>
+    <t>La Chimenea</t>
+  </si>
+  <si>
+    <t>Mi vida es oscura y siempre voy detrás de alguien.</t>
+  </si>
+  <si>
+    <t>Una Sombra</t>
+  </si>
+  <si>
+    <t>No puedo ir a la izquierda, ni a la derecha, siempre estoy atrapado en un edificio de tres pisos.</t>
+  </si>
+  <si>
+    <t>Un Elevador</t>
+  </si>
+  <si>
+    <t>Me oyes una y otra vez, luego muero hasta que me vuelvas a llamar.</t>
+  </si>
+  <si>
+    <t>El Eco</t>
+  </si>
+  <si>
+    <t>Soy blanco cual papel, colorado y no clavel, pico y chile no tiene pita que es.</t>
+  </si>
+  <si>
+    <t>El Rabano</t>
+  </si>
+  <si>
+    <t>Tengo 5 patas, un ojo, 4 colas, 5 orejas y tres cabezas.</t>
+  </si>
+  <si>
+    <t>Un Mentiroso</t>
+  </si>
+  <si>
+    <t>Alegro los campos con colores, perfumo el aire con olores.</t>
+  </si>
+  <si>
+    <t>Las Flores</t>
+  </si>
+  <si>
+    <t>Soy ave y no vuelo, no soy pez y se nadar, soy muy elegante, mmm… blanco y negro no me acertaras</t>
+  </si>
+  <si>
+    <t>El Pinguino</t>
+  </si>
+  <si>
+    <t>El Peine</t>
+  </si>
+  <si>
+    <t>Voy despacio al andar y dejo rastro al pasar, ir a carreras no quiero pues jamas llego al primero.</t>
+  </si>
+  <si>
+    <t>EL Caracol</t>
+  </si>
+  <si>
+    <t>Las manos limpio y el cuerpo tambien, tengo mil aromas y burbujas hare.</t>
+  </si>
+  <si>
+    <t>Un Calendario</t>
+  </si>
+  <si>
+    <t>El Jabon</t>
+  </si>
+  <si>
+    <t>Soy roja, gorda, pecosa y no tengo corazon, endulzo la boca, y me arrancan la cola de un tiron.</t>
+  </si>
+  <si>
+    <t>La Fresa</t>
+  </si>
+  <si>
+    <t>En los baños suelo estar, aunque provengo del mar.</t>
+  </si>
+  <si>
+    <t>Puedo estar en tu casa y cada mes que pasa mas me adelgaza.</t>
+  </si>
+  <si>
+    <t>Te lo digo y no me entiendes, no tengo boca y si dientes.</t>
+  </si>
+  <si>
+    <t>La Esponja</t>
+  </si>
+  <si>
+    <t>Los pobres lo tienen, los ricos lo nesesitan, los sabios lo desconocen.</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Sin ser angel tengo alas, sin ser auto tengo motor, viajo sobre aguas sin se buque ni vapor.</t>
+  </si>
+  <si>
+    <t>Un Avion</t>
+  </si>
+  <si>
+    <t>Siempre en ti, aveces en ti, si te rodeo, puedo matarte.</t>
+  </si>
+  <si>
+    <t>Soy una palomita blanca y negra, vuelo sin alas y hablo sin lengua.</t>
+  </si>
+  <si>
+    <t>La Carta</t>
+  </si>
+  <si>
+    <t>Del negro nasco y del blanco me suelo vestir.</t>
+  </si>
+  <si>
+    <t>La Luz</t>
   </si>
 </sst>
 </file>
@@ -162,10 +379,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -193,6 +414,16 @@
     <tableColumn id="4" xr3:uid="{E99BCAFC-D12A-49CB-8F60-A768B7CD6D9F}" name="¿Quién soy?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F595A15E-322B-4AF5-9769-C8FE87A7FAE6}" name="Tabla2" displayName="Tabla2" ref="A1:B1048576" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{41A5962F-35C6-4ECA-B352-FEB799C1EBC3}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{1EA2F419-B79E-4BB4-B728-3677EBB03257}" name="TxT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -493,16 +724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03BC413-F8BC-4C3F-8908-387A70F97014}">
-  <dimension ref="A1:D51"/>
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="229.28515625" customWidth="1"/>
+    <col min="2" max="2" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
@@ -529,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,10 +782,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,10 +793,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,10 +815,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,10 +837,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,10 +870,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,10 +881,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,196 +903,407 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -868,4 +1313,287 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E808988B-17BD-4DF4-9B70-765C3FA8C76F}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/exel/Uh.xlsx
+++ b/exel/Uh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panfleto\OneDrive\Documentos\A\NYGMA\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FAFA8-58E2-44E5-BAF7-C4A3F472B526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2EC40-F7A9-4D40-AC7C-A02070B00209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16485" yWindow="1395" windowWidth="23805" windowHeight="15600" xr2:uid="{AE9F7790-9794-41A3-9CE8-37B073E93159}"/>
+    <workbookView xWindow="5130" yWindow="0" windowWidth="23805" windowHeight="15600" xr2:uid="{AE9F7790-9794-41A3-9CE8-37B073E93159}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>position</t>
   </si>
@@ -34,9 +34,6 @@
     <t>pregunta</t>
   </si>
   <si>
-    <t>respuesta</t>
-  </si>
-  <si>
     <t>¿Quién soy?</t>
   </si>
   <si>
@@ -49,27 +46,15 @@
     <t>al ir parece que vengo, y al venir, es que me voy.</t>
   </si>
   <si>
-    <t>Una Linterna</t>
-  </si>
-  <si>
-    <t>El Agua</t>
-  </si>
-  <si>
     <t>Vuelo de noche, duermo en el día y nunca veras plumas en ala mía.</t>
   </si>
   <si>
     <t>Canto en la orilla, vivo en el agua, no soy pescado ni cigarra.</t>
   </si>
   <si>
-    <t>La Rana</t>
-  </si>
-  <si>
     <t>El roer es mi trabajo, el queso mi aperitivo y el gato siempre será mi más temido enemigo.</t>
   </si>
   <si>
-    <t>El Raton</t>
-  </si>
-  <si>
     <t>Soy un trocito de luz en la noche, De día me escondo en la hierba, Parezco una esmeralda que el viento se lleva.</t>
   </si>
   <si>
@@ -91,54 +76,9 @@
     <t>Algunas veces soy mensajera, también símbolo de la paz, en los parques o jardines me puedes encontrar.</t>
   </si>
   <si>
-    <t>La Abeja</t>
-  </si>
-  <si>
-    <t>El Caballito de Mar</t>
-  </si>
-  <si>
-    <t>El Camello</t>
-  </si>
-  <si>
-    <t>La Paloma</t>
-  </si>
-  <si>
-    <t>El Mejillon</t>
-  </si>
-  <si>
-    <t>El Cangrejo</t>
-  </si>
-  <si>
-    <t>El Fuego</t>
-  </si>
-  <si>
-    <t>El Murcielago</t>
-  </si>
-  <si>
-    <t>La Luciernaga</t>
-  </si>
-  <si>
-    <t>El Buho</t>
-  </si>
-  <si>
-    <t>EL Espejo</t>
-  </si>
-  <si>
-    <t>Los Segundos</t>
-  </si>
-  <si>
-    <t>Una Estampilla</t>
-  </si>
-  <si>
     <t>Cuanto más lavo, mas sucia voy.</t>
   </si>
   <si>
-    <t>El Azucarero</t>
-  </si>
-  <si>
-    <t>El Cerebro</t>
-  </si>
-  <si>
     <t>Haciendo ruido vengo, haciendo ruido me voy, y cuando vuelvo en la mañanna, de igual forma me ire.</t>
   </si>
   <si>
@@ -163,39 +103,18 @@
     <t>Aveces soy tristesa, aveces alivio, te llevare alli pero nunca te traere de regreso.</t>
   </si>
   <si>
-    <t>La Muerte</t>
-  </si>
-  <si>
-    <t>Las Olas</t>
-  </si>
-  <si>
-    <t>Un Agujero</t>
-  </si>
-  <si>
     <t>Los ricos lo quieren, los sabios lo conocen y los pobres lo nesesitan.</t>
   </si>
   <si>
     <t>Tengo la cara redonda, tengo la cara empolvada y si me pongo del reves seguro no me vez.</t>
   </si>
   <si>
-    <t>LA Luna</t>
-  </si>
-  <si>
-    <t>EL Amor</t>
-  </si>
-  <si>
-    <t>La Mesa</t>
-  </si>
-  <si>
     <t>Aunque tengo cuatro patas, nunca pude correr, tengo la comida encima y no la puedo comer.</t>
   </si>
   <si>
     <t>Tengo alas de mil colores y se pierden entre flores.</t>
   </si>
   <si>
-    <t>Las Mariposas</t>
-  </si>
-  <si>
     <t>Numero</t>
   </si>
   <si>
@@ -208,105 +127,51 @@
     <t>Verde fue mi nacimiento, amarillo mi vivir y ahora me visto de negro sabiendo que voy a morir.</t>
   </si>
   <si>
-    <t>Las Aceitunas</t>
-  </si>
-  <si>
     <t>Suelo ir de la mano en mano, tengo hojas y no soy flor, y aun teniendo muchas letras no soy nadie de deudor.</t>
   </si>
   <si>
-    <t>Un Libro</t>
-  </si>
-  <si>
     <t>No tengo manos pero si toco tu puerta sera mejor que abras</t>
   </si>
   <si>
-    <t>La Oportunidad</t>
-  </si>
-  <si>
     <t>El hielo se derrite cuando lo calientas, pero si me calientas me solidifico.</t>
   </si>
   <si>
-    <t>El Huebo</t>
-  </si>
-  <si>
     <t>Almacen de historias rotas dicen muchos que soy y en colegios y oficinas por los rincones estoy.</t>
   </si>
   <si>
-    <t>La Papelera</t>
-  </si>
-  <si>
     <t>Siempre estoy a la intemperie a la orilla del calor tengo el estomago negro y tomo baños de sol.</t>
   </si>
   <si>
-    <t>La Chimenea</t>
-  </si>
-  <si>
     <t>Mi vida es oscura y siempre voy detrás de alguien.</t>
   </si>
   <si>
-    <t>Una Sombra</t>
-  </si>
-  <si>
     <t>No puedo ir a la izquierda, ni a la derecha, siempre estoy atrapado en un edificio de tres pisos.</t>
   </si>
   <si>
-    <t>Un Elevador</t>
-  </si>
-  <si>
     <t>Me oyes una y otra vez, luego muero hasta que me vuelvas a llamar.</t>
   </si>
   <si>
-    <t>El Eco</t>
-  </si>
-  <si>
     <t>Soy blanco cual papel, colorado y no clavel, pico y chile no tiene pita que es.</t>
   </si>
   <si>
-    <t>El Rabano</t>
-  </si>
-  <si>
     <t>Tengo 5 patas, un ojo, 4 colas, 5 orejas y tres cabezas.</t>
   </si>
   <si>
-    <t>Un Mentiroso</t>
-  </si>
-  <si>
     <t>Alegro los campos con colores, perfumo el aire con olores.</t>
   </si>
   <si>
-    <t>Las Flores</t>
-  </si>
-  <si>
     <t>Soy ave y no vuelo, no soy pez y se nadar, soy muy elegante, mmm… blanco y negro no me acertaras</t>
   </si>
   <si>
-    <t>El Pinguino</t>
-  </si>
-  <si>
-    <t>El Peine</t>
-  </si>
-  <si>
     <t>Voy despacio al andar y dejo rastro al pasar, ir a carreras no quiero pues jamas llego al primero.</t>
   </si>
   <si>
-    <t>EL Caracol</t>
-  </si>
-  <si>
     <t>Las manos limpio y el cuerpo tambien, tengo mil aromas y burbujas hare.</t>
   </si>
   <si>
-    <t>Un Calendario</t>
-  </si>
-  <si>
-    <t>El Jabon</t>
-  </si>
-  <si>
     <t>Soy roja, gorda, pecosa y no tengo corazon, endulzo la boca, y me arrancan la cola de un tiron.</t>
   </si>
   <si>
-    <t>La Fresa</t>
-  </si>
-  <si>
     <t>En los baños suelo estar, aunque provengo del mar.</t>
   </si>
   <si>
@@ -316,9 +181,6 @@
     <t>Te lo digo y no me entiendes, no tengo boca y si dientes.</t>
   </si>
   <si>
-    <t>La Esponja</t>
-  </si>
-  <si>
     <t>Los pobres lo tienen, los ricos lo nesesitan, los sabios lo desconocen.</t>
   </si>
   <si>
@@ -328,30 +190,179 @@
     <t>Sin ser angel tengo alas, sin ser auto tengo motor, viajo sobre aguas sin se buque ni vapor.</t>
   </si>
   <si>
-    <t>Un Avion</t>
-  </si>
-  <si>
     <t>Siempre en ti, aveces en ti, si te rodeo, puedo matarte.</t>
   </si>
   <si>
     <t>Soy una palomita blanca y negra, vuelo sin alas y hablo sin lengua.</t>
   </si>
   <si>
-    <t>La Carta</t>
-  </si>
-  <si>
     <t>Del negro nasco y del blanco me suelo vestir.</t>
   </si>
   <si>
-    <t>La Luz</t>
+    <t>Fuego</t>
+  </si>
+  <si>
+    <t>Linterna</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Cangrejo</t>
+  </si>
+  <si>
+    <t>Murcielago</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Raton</t>
+  </si>
+  <si>
+    <t>Luciernaga</t>
+  </si>
+  <si>
+    <t>Abeja</t>
+  </si>
+  <si>
+    <t>Buho</t>
+  </si>
+  <si>
+    <t>Camello</t>
+  </si>
+  <si>
+    <t>Mejillon</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t>Espejo</t>
+  </si>
+  <si>
+    <t>Segundos</t>
+  </si>
+  <si>
+    <t>Estampilla</t>
+  </si>
+  <si>
+    <t>Azucarero</t>
+  </si>
+  <si>
+    <t>Cerebro</t>
+  </si>
+  <si>
+    <t>Olas</t>
+  </si>
+  <si>
+    <t>Agujero</t>
+  </si>
+  <si>
+    <t>Muerte</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Oportunidad</t>
+  </si>
+  <si>
+    <t>Huebo</t>
+  </si>
+  <si>
+    <t>Papelera</t>
+  </si>
+  <si>
+    <t>Chimenea</t>
+  </si>
+  <si>
+    <t>Sombra</t>
+  </si>
+  <si>
+    <t>Elevador</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>Rabano</t>
+  </si>
+  <si>
+    <t>Mentiroso</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Pinguino</t>
+  </si>
+  <si>
+    <t>Peine</t>
+  </si>
+  <si>
+    <t>Caracol</t>
+  </si>
+  <si>
+    <t>Jabon</t>
+  </si>
+  <si>
+    <t>Calendario</t>
+  </si>
+  <si>
+    <t>Fresa</t>
+  </si>
+  <si>
+    <t>Esponja</t>
+  </si>
+  <si>
+    <t>Avion</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Aceituna</t>
+  </si>
+  <si>
+    <t>Mariposa</t>
+  </si>
+  <si>
+    <t>Caballito de Mar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -379,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,11 +418,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1366E2C-8C0E-4A50-835A-07E5A1E56562}" name="Tabla1" displayName="Tabla1" ref="A1:D1048576" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1366E2C-8C0E-4A50-835A-07E5A1E56562}" name="Tabla1" displayName="Tabla1" ref="A1:C1048576" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{20D47C37-3814-45EC-9048-14D347E69098}" name="position"/>
     <tableColumn id="2" xr3:uid="{0FD280C0-46CA-4505-8E66-4E7FFAB1E245}" name="pregunta"/>
-    <tableColumn id="3" xr3:uid="{ECB35126-89D3-4B2E-86E9-F1143A996B9D}" name="respuesta"/>
     <tableColumn id="4" xr3:uid="{E99BCAFC-D12A-49CB-8F60-A768B7CD6D9F}" name="¿Quién soy?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -727,21 +738,20 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="110.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,350 +761,349 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,10 +1111,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,10 +1122,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,10 +1133,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,10 +1144,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,10 +1155,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,10 +1166,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1177,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1188,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,10 +1199,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1221,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,10 +1232,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,10 +1243,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1254,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,10 +1265,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,10 +1276,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,10 +1287,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1298,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,13 +1309,14 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1331,10 +1341,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
